--- a/character_details.xlsx
+++ b/character_details.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D236D2-24E1-40B5-B084-60DA6018BDBB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Characters</t>
   </si>
@@ -131,13 +130,19 @@
   </si>
   <si>
     <t>Bhuwan/Haris</t>
+  </si>
+  <si>
+    <t>C01_idle</t>
+  </si>
+  <si>
+    <t>50*115</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -447,28 +452,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -496,7 +501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -510,7 +515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -527,7 +532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -541,7 +546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -555,7 +560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -566,59 +571,65 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="1:4">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>7</v>
       </c>
     </row>

--- a/character_details.xlsx
+++ b/character_details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Characters</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>50*115</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Kick</t>
+  </si>
+  <si>
+    <t>Punch</t>
+  </si>
+  <si>
+    <t>Jump Attack</t>
   </si>
 </sst>
 </file>
@@ -452,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -633,6 +648,31 @@
         <v>7</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
